--- a/智能小车ARM平台IO分布图.xlsx
+++ b/智能小车ARM平台IO分布图.xlsx
@@ -623,6 +623,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,7 +651,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,10 +1001,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,12 +1018,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1037,7 +1040,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
@@ -1063,7 +1066,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1078,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1087,7 +1090,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -1099,7 +1102,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1123,7 +1126,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1163,7 +1166,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1178,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1201,7 +1204,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1216,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1227,7 +1230,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1253,7 +1256,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1282,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1293,7 +1296,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1308,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1317,7 +1320,7 @@
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -1327,7 +1330,7 @@
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
@@ -1337,7 +1340,7 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>58</v>
       </c>
@@ -1347,7 +1350,7 @@
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>57</v>
       </c>
@@ -1357,19 +1360,19 @@
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>89</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
       </c>
@@ -1394,18 +1397,18 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
